--- a/web/data/list.xlsx
+++ b/web/data/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2060" windowWidth="30640" windowHeight="18140"/>
+    <workbookView xWindow="5160" yWindow="3040" windowWidth="30640" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="779">
   <si>
     <t>id</t>
   </si>
@@ -2262,21 +2262,9 @@
     <t>renault-ural.ru</t>
   </si>
   <si>
-    <t>(address) Северный</t>
-  </si>
-  <si>
     <t>Череповец</t>
   </si>
   <si>
-    <t>деревня Солманское, 11а 162676 Череповец</t>
-  </si>
-  <si>
-    <t>(address) ГК Северный</t>
-  </si>
-  <si>
-    <t>с. Солманское, д.11а 162677 Череповец</t>
-  </si>
-  <si>
     <t>Автосалон Северный</t>
   </si>
   <si>
@@ -2343,595 +2331,31 @@
     <t>color</t>
   </si>
   <si>
-    <t>#196619</t>
-  </si>
-  <si>
-    <t>#7D0000</t>
-  </si>
-  <si>
-    <t>#196620</t>
-  </si>
-  <si>
-    <t>#7D0001</t>
-  </si>
-  <si>
-    <t>#196621</t>
-  </si>
-  <si>
-    <t>#7D0002</t>
-  </si>
-  <si>
-    <t>#196622</t>
-  </si>
-  <si>
-    <t>#7D0003</t>
-  </si>
-  <si>
-    <t>#196623</t>
-  </si>
-  <si>
-    <t>#7D0004</t>
-  </si>
-  <si>
-    <t>#196624</t>
-  </si>
-  <si>
-    <t>#7D0005</t>
-  </si>
-  <si>
-    <t>#196625</t>
-  </si>
-  <si>
-    <t>#7D0006</t>
-  </si>
-  <si>
-    <t>#196626</t>
-  </si>
-  <si>
-    <t>#7D0007</t>
-  </si>
-  <si>
-    <t>#196627</t>
-  </si>
-  <si>
-    <t>#7D0008</t>
-  </si>
-  <si>
-    <t>#196628</t>
-  </si>
-  <si>
-    <t>#7D0009</t>
-  </si>
-  <si>
-    <t>#196629</t>
-  </si>
-  <si>
-    <t>#7D0010</t>
-  </si>
-  <si>
-    <t>#196630</t>
-  </si>
-  <si>
-    <t>#7D0011</t>
-  </si>
-  <si>
-    <t>#196631</t>
-  </si>
-  <si>
-    <t>#7D0012</t>
-  </si>
-  <si>
-    <t>#196632</t>
-  </si>
-  <si>
-    <t>#7D0013</t>
-  </si>
-  <si>
-    <t>#196633</t>
-  </si>
-  <si>
-    <t>#7D0014</t>
-  </si>
-  <si>
-    <t>#196634</t>
-  </si>
-  <si>
-    <t>#7D0015</t>
-  </si>
-  <si>
-    <t>#196635</t>
-  </si>
-  <si>
-    <t>#7D0016</t>
-  </si>
-  <si>
-    <t>#196636</t>
-  </si>
-  <si>
-    <t>#7D0017</t>
-  </si>
-  <si>
-    <t>#196637</t>
-  </si>
-  <si>
-    <t>#7D0018</t>
-  </si>
-  <si>
-    <t>#196638</t>
-  </si>
-  <si>
-    <t>#7D0019</t>
-  </si>
-  <si>
-    <t>#196639</t>
-  </si>
-  <si>
-    <t>#7D0020</t>
-  </si>
-  <si>
-    <t>#196640</t>
-  </si>
-  <si>
-    <t>#7D0021</t>
-  </si>
-  <si>
-    <t>#196641</t>
-  </si>
-  <si>
-    <t>#7D0022</t>
-  </si>
-  <si>
-    <t>#196642</t>
-  </si>
-  <si>
-    <t>#7D0023</t>
-  </si>
-  <si>
-    <t>#196643</t>
-  </si>
-  <si>
-    <t>#7D0024</t>
-  </si>
-  <si>
-    <t>#196644</t>
-  </si>
-  <si>
-    <t>#7D0025</t>
-  </si>
-  <si>
-    <t>#196645</t>
-  </si>
-  <si>
-    <t>#7D0026</t>
-  </si>
-  <si>
-    <t>#196646</t>
-  </si>
-  <si>
-    <t>#7D0027</t>
-  </si>
-  <si>
-    <t>#196647</t>
-  </si>
-  <si>
-    <t>#7D0028</t>
-  </si>
-  <si>
-    <t>#196648</t>
-  </si>
-  <si>
-    <t>#7D0029</t>
-  </si>
-  <si>
-    <t>#196649</t>
-  </si>
-  <si>
-    <t>#7D0030</t>
-  </si>
-  <si>
-    <t>#196650</t>
-  </si>
-  <si>
-    <t>#7D0031</t>
-  </si>
-  <si>
-    <t>#196651</t>
-  </si>
-  <si>
-    <t>#7D0032</t>
-  </si>
-  <si>
-    <t>#196652</t>
-  </si>
-  <si>
-    <t>#7D0033</t>
-  </si>
-  <si>
-    <t>#196653</t>
-  </si>
-  <si>
-    <t>#7D0034</t>
-  </si>
-  <si>
-    <t>#196654</t>
-  </si>
-  <si>
-    <t>#7D0035</t>
-  </si>
-  <si>
-    <t>#196655</t>
-  </si>
-  <si>
-    <t>#7D0036</t>
-  </si>
-  <si>
-    <t>#196656</t>
-  </si>
-  <si>
-    <t>#7D0037</t>
-  </si>
-  <si>
-    <t>#196657</t>
-  </si>
-  <si>
-    <t>#7D0038</t>
-  </si>
-  <si>
-    <t>#196658</t>
-  </si>
-  <si>
-    <t>#7D0039</t>
-  </si>
-  <si>
-    <t>#196659</t>
-  </si>
-  <si>
-    <t>#7D0040</t>
-  </si>
-  <si>
-    <t>#196660</t>
-  </si>
-  <si>
-    <t>#7D0041</t>
-  </si>
-  <si>
-    <t>#196661</t>
-  </si>
-  <si>
-    <t>#7D0042</t>
-  </si>
-  <si>
-    <t>#196662</t>
-  </si>
-  <si>
-    <t>#7D0043</t>
-  </si>
-  <si>
-    <t>#196663</t>
-  </si>
-  <si>
-    <t>#7D0044</t>
-  </si>
-  <si>
-    <t>#196664</t>
-  </si>
-  <si>
-    <t>#7D0045</t>
-  </si>
-  <si>
-    <t>#196665</t>
-  </si>
-  <si>
-    <t>#7D0046</t>
-  </si>
-  <si>
-    <t>#196666</t>
-  </si>
-  <si>
-    <t>#7D0047</t>
-  </si>
-  <si>
-    <t>#196667</t>
-  </si>
-  <si>
-    <t>#7D0048</t>
-  </si>
-  <si>
-    <t>#196668</t>
-  </si>
-  <si>
-    <t>#7D0049</t>
-  </si>
-  <si>
-    <t>#196669</t>
-  </si>
-  <si>
-    <t>#7D0050</t>
-  </si>
-  <si>
-    <t>#196670</t>
-  </si>
-  <si>
-    <t>#7D0051</t>
-  </si>
-  <si>
-    <t>#196671</t>
-  </si>
-  <si>
-    <t>#7D0052</t>
-  </si>
-  <si>
-    <t>#196672</t>
-  </si>
-  <si>
-    <t>#7D0053</t>
-  </si>
-  <si>
-    <t>#196673</t>
-  </si>
-  <si>
-    <t>#7D0054</t>
-  </si>
-  <si>
-    <t>#196674</t>
-  </si>
-  <si>
-    <t>#7D0055</t>
-  </si>
-  <si>
-    <t>#196675</t>
-  </si>
-  <si>
-    <t>#7D0056</t>
-  </si>
-  <si>
-    <t>#196676</t>
-  </si>
-  <si>
-    <t>#7D0057</t>
-  </si>
-  <si>
-    <t>#196677</t>
-  </si>
-  <si>
-    <t>#7D0058</t>
-  </si>
-  <si>
-    <t>#196678</t>
-  </si>
-  <si>
-    <t>#7D0059</t>
-  </si>
-  <si>
-    <t>#196679</t>
-  </si>
-  <si>
-    <t>#7D0060</t>
-  </si>
-  <si>
-    <t>#196680</t>
-  </si>
-  <si>
-    <t>#7D0061</t>
-  </si>
-  <si>
-    <t>#196681</t>
-  </si>
-  <si>
-    <t>#7D0062</t>
-  </si>
-  <si>
-    <t>#196682</t>
-  </si>
-  <si>
-    <t>#7D0063</t>
-  </si>
-  <si>
-    <t>#196683</t>
-  </si>
-  <si>
-    <t>#7D0064</t>
-  </si>
-  <si>
-    <t>#196684</t>
-  </si>
-  <si>
-    <t>#7D0065</t>
-  </si>
-  <si>
-    <t>#196685</t>
-  </si>
-  <si>
-    <t>#7D0066</t>
-  </si>
-  <si>
-    <t>#196686</t>
-  </si>
-  <si>
-    <t>#7D0067</t>
-  </si>
-  <si>
-    <t>#196687</t>
-  </si>
-  <si>
-    <t>#7D0068</t>
-  </si>
-  <si>
-    <t>#196688</t>
-  </si>
-  <si>
-    <t>#7D0069</t>
-  </si>
-  <si>
-    <t>#196689</t>
-  </si>
-  <si>
-    <t>#7D0070</t>
-  </si>
-  <si>
-    <t>#196690</t>
-  </si>
-  <si>
-    <t>#7D0071</t>
-  </si>
-  <si>
-    <t>#196691</t>
-  </si>
-  <si>
-    <t>#7D0072</t>
-  </si>
-  <si>
-    <t>#196692</t>
-  </si>
-  <si>
-    <t>#7D0073</t>
-  </si>
-  <si>
-    <t>#196693</t>
-  </si>
-  <si>
-    <t>#7D0074</t>
-  </si>
-  <si>
-    <t>#196694</t>
-  </si>
-  <si>
-    <t>#7D0075</t>
-  </si>
-  <si>
-    <t>#196695</t>
-  </si>
-  <si>
-    <t>#7D0076</t>
-  </si>
-  <si>
-    <t>#196696</t>
-  </si>
-  <si>
-    <t>#7D0077</t>
-  </si>
-  <si>
-    <t>#196697</t>
-  </si>
-  <si>
-    <t>#7D0078</t>
-  </si>
-  <si>
-    <t>#196698</t>
-  </si>
-  <si>
-    <t>#7D0079</t>
-  </si>
-  <si>
-    <t>#196699</t>
-  </si>
-  <si>
-    <t>#7D0080</t>
-  </si>
-  <si>
-    <t>#196700</t>
-  </si>
-  <si>
-    <t>#7D0081</t>
-  </si>
-  <si>
-    <t>#196701</t>
-  </si>
-  <si>
-    <t>#7D0082</t>
-  </si>
-  <si>
-    <t>#196702</t>
-  </si>
-  <si>
-    <t>#7D0083</t>
-  </si>
-  <si>
-    <t>#196703</t>
-  </si>
-  <si>
-    <t>#7D0084</t>
-  </si>
-  <si>
-    <t>#196704</t>
-  </si>
-  <si>
-    <t>#7D0085</t>
-  </si>
-  <si>
-    <t>#196705</t>
-  </si>
-  <si>
-    <t>#7D0086</t>
-  </si>
-  <si>
-    <t>#196706</t>
-  </si>
-  <si>
-    <t>#7D0087</t>
-  </si>
-  <si>
-    <t>#196707</t>
-  </si>
-  <si>
-    <t>#7D0088</t>
-  </si>
-  <si>
-    <t>#196708</t>
-  </si>
-  <si>
-    <t>#7D0089</t>
-  </si>
-  <si>
-    <t>#196709</t>
-  </si>
-  <si>
-    <t>#7D0090</t>
-  </si>
-  <si>
-    <t>#196710</t>
-  </si>
-  <si>
-    <t>#7D0091</t>
-  </si>
-  <si>
-    <t>#196711</t>
-  </si>
-  <si>
-    <t>#7D0092</t>
-  </si>
-  <si>
-    <t>#196712</t>
-  </si>
-  <si>
-    <t>#7D0093</t>
-  </si>
-  <si>
-    <t>#196713</t>
-  </si>
-  <si>
-    <t>#7D0094</t>
-  </si>
-  <si>
-    <t>#196714</t>
-  </si>
-  <si>
-    <t>#7D0095</t>
-  </si>
-  <si>
-    <t>#196715</t>
-  </si>
-  <si>
-    <t>#7D0096</t>
-  </si>
-  <si>
-    <t>#196716</t>
-  </si>
-  <si>
-    <t>#7D0097</t>
-  </si>
-  <si>
-    <t>#196717</t>
+    <t>network</t>
+  </si>
+  <si>
+    <t>Аптечная сеть #1</t>
+  </si>
+  <si>
+    <t>Drug network #2</t>
+  </si>
+  <si>
+    <t>Сеть аптечная #3</t>
+  </si>
+  <si>
+    <t>Новая сеть #4</t>
+  </si>
+  <si>
+    <t>#b19ec6</t>
+  </si>
+  <si>
+    <t>#769640</t>
+  </si>
+  <si>
+    <t>#ef964d</t>
+  </si>
+  <si>
+    <t>#f50019</t>
   </si>
 </sst>
 </file>
@@ -2957,12 +2381,36 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2974,7 +2422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2982,17 +2430,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3287,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3303,11 +2779,12 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" customWidth="1"/>
     <col min="12" max="12" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3333,10 +2810,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>769</v>
+      </c>
+      <c r="J1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>121</v>
       </c>
@@ -3358,11 +2838,14 @@
       <c r="H2">
         <v>53.729419999999998</v>
       </c>
-      <c r="I2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>240</v>
       </c>
@@ -3387,11 +2870,14 @@
       <c r="H3">
         <v>54.91093</v>
       </c>
-      <c r="I3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>168</v>
       </c>
@@ -3416,11 +2902,14 @@
       <c r="H4">
         <v>55.404591000000003</v>
       </c>
-      <c r="I4" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>176</v>
       </c>
@@ -3445,11 +2934,14 @@
       <c r="H5">
         <v>44.970261000000001</v>
       </c>
-      <c r="I5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>253</v>
       </c>
@@ -3471,11 +2963,14 @@
       <c r="H6">
         <v>64.532916</v>
       </c>
-      <c r="I6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3500,11 +2995,14 @@
       <c r="H7">
         <v>46.335788999999998</v>
       </c>
-      <c r="I7" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>148</v>
       </c>
@@ -3529,11 +3027,14 @@
       <c r="H8">
         <v>51.983929000000003</v>
       </c>
-      <c r="I8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>166</v>
       </c>
@@ -3558,11 +3059,14 @@
       <c r="H9">
         <v>53.325324999999999</v>
       </c>
-      <c r="I9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>175</v>
       </c>
@@ -3587,11 +3091,14 @@
       <c r="H10">
         <v>53.351868000000003</v>
       </c>
-      <c r="I10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3616,11 +3123,14 @@
       <c r="H11">
         <v>50.569201999999997</v>
       </c>
-      <c r="I11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>239</v>
       </c>
@@ -3645,11 +3155,14 @@
       <c r="H12">
         <v>54.441600000000001</v>
       </c>
-      <c r="I12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>112</v>
       </c>
@@ -3671,11 +3184,14 @@
       <c r="H13">
         <v>59.402157000000003</v>
       </c>
-      <c r="I13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>192</v>
       </c>
@@ -3700,11 +3216,14 @@
       <c r="H14">
         <v>52.524138999999998</v>
       </c>
-      <c r="I14" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>136</v>
       </c>
@@ -3726,11 +3245,14 @@
       <c r="H15">
         <v>50.304161000000001</v>
       </c>
-      <c r="I15" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>146</v>
       </c>
@@ -3755,11 +3277,14 @@
       <c r="H16">
         <v>51.380138000000002</v>
       </c>
-      <c r="I16" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J16" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3784,11 +3309,14 @@
       <c r="H17">
         <v>53.295723000000002</v>
       </c>
-      <c r="I17" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>216</v>
       </c>
@@ -3807,11 +3335,14 @@
       <c r="H18">
         <v>53.206695000000003</v>
       </c>
-      <c r="I18" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>149</v>
       </c>
@@ -3836,11 +3367,14 @@
       <c r="H19">
         <v>52.762588999999998</v>
       </c>
-      <c r="I19" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J19" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3865,11 +3399,14 @@
       <c r="H20">
         <v>58.542727999999997</v>
       </c>
-      <c r="I20" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3894,11 +3431,14 @@
       <c r="H21">
         <v>60.764190999999997</v>
       </c>
-      <c r="I21" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3923,11 +3463,14 @@
       <c r="H22">
         <v>43.137568999999999</v>
       </c>
-      <c r="I22" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3952,11 +3495,14 @@
       <c r="H23">
         <v>56.126801</v>
       </c>
-      <c r="I23" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J23" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>10</v>
       </c>
@@ -3981,11 +3527,14 @@
       <c r="H24">
         <v>48.750557000000001</v>
       </c>
-      <c r="I24" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>140</v>
       </c>
@@ -4010,11 +3559,14 @@
       <c r="H25">
         <v>48.814861000000001</v>
       </c>
-      <c r="I25" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J25" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>173</v>
       </c>
@@ -4039,11 +3591,14 @@
       <c r="H26">
         <v>48.757088000000003</v>
       </c>
-      <c r="I26" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J26" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>194</v>
       </c>
@@ -4065,11 +3620,14 @@
       <c r="H27">
         <v>47.527892000000001</v>
       </c>
-      <c r="I27" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J27" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>11</v>
       </c>
@@ -4094,11 +3652,14 @@
       <c r="H28">
         <v>59.216366000000001</v>
       </c>
-      <c r="I28" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J28" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>12</v>
       </c>
@@ -4123,11 +3684,14 @@
       <c r="H29">
         <v>51.687869999999997</v>
       </c>
-      <c r="I29" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J29" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>165</v>
       </c>
@@ -4152,11 +3716,14 @@
       <c r="H30">
         <v>51.800545</v>
       </c>
-      <c r="I30" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>178</v>
       </c>
@@ -4181,11 +3748,14 @@
       <c r="H31">
         <v>51.677860000000003</v>
       </c>
-      <c r="I31" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>179</v>
       </c>
@@ -4204,11 +3774,14 @@
       <c r="H32">
         <v>60.035727999999999</v>
       </c>
-      <c r="I32" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J32" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>147</v>
       </c>
@@ -4233,11 +3806,14 @@
       <c r="H33">
         <v>60.700001</v>
       </c>
-      <c r="I33" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>124</v>
       </c>
@@ -4262,11 +3838,14 @@
       <c r="H34">
         <v>55.320404000000003</v>
       </c>
-      <c r="I34" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J34" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>13</v>
       </c>
@@ -4288,11 +3867,14 @@
       <c r="H35">
         <v>54.221189000000003</v>
       </c>
-      <c r="I35" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J35" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>254</v>
       </c>
@@ -4317,11 +3899,14 @@
       <c r="H36">
         <v>54.221189000000003</v>
       </c>
-      <c r="I36" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J36" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>14</v>
       </c>
@@ -4346,11 +3931,14 @@
       <c r="H37">
         <v>56.867564999999999</v>
       </c>
-      <c r="I37" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J37" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>15</v>
       </c>
@@ -4375,11 +3963,14 @@
       <c r="H38">
         <v>56.754623000000002</v>
       </c>
-      <c r="I38" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4404,11 +3995,14 @@
       <c r="H39">
         <v>56.833644</v>
       </c>
-      <c r="I39" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J39" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>132</v>
       </c>
@@ -4433,11 +4027,14 @@
       <c r="H40">
         <v>56.899036000000002</v>
       </c>
-      <c r="I40" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J40" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>156</v>
       </c>
@@ -4462,11 +4059,14 @@
       <c r="H41">
         <v>53.146000000000001</v>
       </c>
-      <c r="I41" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J41" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>108</v>
       </c>
@@ -4491,11 +4091,14 @@
       <c r="H42">
         <v>55.613995000000003</v>
       </c>
-      <c r="I42" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J42" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>17</v>
       </c>
@@ -4520,11 +4123,14 @@
       <c r="H43">
         <v>56.973700999999998</v>
       </c>
-      <c r="I43" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>18</v>
       </c>
@@ -4549,11 +4155,14 @@
       <c r="H44">
         <v>56.845027999999999</v>
       </c>
-      <c r="I44" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J44" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>19</v>
       </c>
@@ -4578,11 +4187,14 @@
       <c r="H45">
         <v>52.326168000000003</v>
       </c>
-      <c r="I45" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>122</v>
       </c>
@@ -4607,11 +4219,14 @@
       <c r="H46">
         <v>56.637424000000003</v>
       </c>
-      <c r="I46" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J46" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>20</v>
       </c>
@@ -4636,11 +4251,14 @@
       <c r="H47">
         <v>55.823115999999999</v>
       </c>
-      <c r="I47" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J47" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>111</v>
       </c>
@@ -4665,11 +4283,14 @@
       <c r="H48">
         <v>55.795783999999998</v>
       </c>
-      <c r="I48" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J48" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>170</v>
       </c>
@@ -4694,11 +4315,14 @@
       <c r="H49">
         <v>55.732093999999996</v>
       </c>
-      <c r="I49" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>21</v>
       </c>
@@ -4723,11 +4347,14 @@
       <c r="H50">
         <v>54.713366999999998</v>
       </c>
-      <c r="I50" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J50" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>22</v>
       </c>
@@ -4752,11 +4379,14 @@
       <c r="H51">
         <v>54.514454000000001</v>
       </c>
-      <c r="I51" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J51" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>181</v>
       </c>
@@ -4781,11 +4411,14 @@
       <c r="H52">
         <v>56.414206999999998</v>
       </c>
-      <c r="I52" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J52" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>23</v>
       </c>
@@ -4807,11 +4440,14 @@
       <c r="H53">
         <v>55.325038999999997</v>
       </c>
-      <c r="I53" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J53" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>24</v>
       </c>
@@ -4836,11 +4472,14 @@
       <c r="H54">
         <v>58.593128</v>
       </c>
-      <c r="I54" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J54" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>129</v>
       </c>
@@ -4865,11 +4504,14 @@
       <c r="H55">
         <v>52.745739</v>
       </c>
-      <c r="I55" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="I55" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J55" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>258</v>
       </c>
@@ -4882,11 +4524,14 @@
       <c r="D56" t="s">
         <v>239</v>
       </c>
-      <c r="I56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J56" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>152</v>
       </c>
@@ -4911,11 +4556,14 @@
       <c r="H57">
         <v>55.160069</v>
       </c>
-      <c r="I57" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J57" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>25</v>
       </c>
@@ -4940,11 +4588,14 @@
       <c r="H58">
         <v>57.753459999999997</v>
       </c>
-      <c r="I58" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J58" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>27</v>
       </c>
@@ -4969,11 +4620,14 @@
       <c r="H59">
         <v>45.029423000000001</v>
       </c>
-      <c r="I59" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J59" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>28</v>
       </c>
@@ -4998,11 +4652,14 @@
       <c r="H60">
         <v>45.063327999999998</v>
       </c>
-      <c r="I60" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J60" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>127</v>
       </c>
@@ -5027,11 +4684,14 @@
       <c r="H61">
         <v>45.085526000000002</v>
       </c>
-      <c r="I61" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J61" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>174</v>
       </c>
@@ -5056,11 +4716,14 @@
       <c r="H62">
         <v>45.016548</v>
       </c>
-      <c r="I62" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J62" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>29</v>
       </c>
@@ -5085,11 +4748,14 @@
       <c r="H63">
         <v>56.014888999999997</v>
       </c>
-      <c r="I63" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J63" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>30</v>
       </c>
@@ -5114,11 +4780,14 @@
       <c r="H64">
         <v>56.038967</v>
       </c>
-      <c r="I64" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J64" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>31</v>
       </c>
@@ -5143,11 +4812,14 @@
       <c r="H65">
         <v>53.088996999999999</v>
       </c>
-      <c r="I65" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J65" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>154</v>
       </c>
@@ -5172,11 +4844,14 @@
       <c r="H66">
         <v>55.478138000000001</v>
       </c>
-      <c r="I66" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J66" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>32</v>
       </c>
@@ -5198,11 +4873,14 @@
       <c r="H67">
         <v>51.738402999999998</v>
       </c>
-      <c r="I67" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>160</v>
       </c>
@@ -5227,11 +4905,14 @@
       <c r="H68">
         <v>51.767982000000003</v>
       </c>
-      <c r="I68" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J68" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>33</v>
       </c>
@@ -5253,11 +4934,14 @@
       <c r="H69">
         <v>52.597541999999997</v>
       </c>
-      <c r="I69" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J69" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>34</v>
       </c>
@@ -5282,11 +4966,14 @@
       <c r="H70">
         <v>53.467407000000001</v>
       </c>
-      <c r="I70" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J70" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>35</v>
       </c>
@@ -5311,11 +4998,14 @@
       <c r="H71">
         <v>55.042186999999998</v>
       </c>
-      <c r="I71" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J71" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>126</v>
       </c>
@@ -5337,11 +5027,14 @@
       <c r="H72">
         <v>44.214199000000001</v>
       </c>
-      <c r="I72" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J72" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>193</v>
       </c>
@@ -5366,11 +5059,14 @@
       <c r="H73">
         <v>67.934792000000002</v>
       </c>
-      <c r="I73" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J73" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>36</v>
       </c>
@@ -5395,11 +5091,14 @@
       <c r="H74">
         <v>55.640628999999997</v>
       </c>
-      <c r="I74" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J74" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>37</v>
       </c>
@@ -5424,11 +5123,14 @@
       <c r="H75">
         <v>55.998019999999997</v>
       </c>
-      <c r="I75" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J75" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>38</v>
       </c>
@@ -5453,11 +5155,14 @@
       <c r="H76">
         <v>55.841743000000001</v>
       </c>
-      <c r="I76" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J76" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>39</v>
       </c>
@@ -5482,11 +5187,14 @@
       <c r="H77">
         <v>55.790160999999998</v>
       </c>
-      <c r="I77" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J77" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>40</v>
       </c>
@@ -5511,11 +5219,14 @@
       <c r="H78">
         <v>55.692512999999998</v>
       </c>
-      <c r="I78" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J78" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>41</v>
       </c>
@@ -5540,11 +5251,14 @@
       <c r="H79">
         <v>55.648865000000001</v>
       </c>
-      <c r="I79" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J79" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>42</v>
       </c>
@@ -5569,11 +5283,14 @@
       <c r="H80">
         <v>55.582217999999997</v>
       </c>
-      <c r="I80" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J80" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>45</v>
       </c>
@@ -5598,11 +5315,14 @@
       <c r="H81">
         <v>55.890017999999998</v>
       </c>
-      <c r="I81" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J81" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>47</v>
       </c>
@@ -5627,11 +5347,14 @@
       <c r="H82">
         <v>55.880268000000001</v>
       </c>
-      <c r="I82" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J82" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>48</v>
       </c>
@@ -5656,11 +5379,14 @@
       <c r="H83">
         <v>55.668410999999999</v>
       </c>
-      <c r="I83" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J83" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>49</v>
       </c>
@@ -5685,11 +5411,14 @@
       <c r="H84">
         <v>55.813327999999998</v>
       </c>
-      <c r="I84" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J84" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>50</v>
       </c>
@@ -5714,11 +5443,14 @@
       <c r="H85">
         <v>55.804355999999999</v>
       </c>
-      <c r="I85" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J85" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>52</v>
       </c>
@@ -5743,11 +5475,14 @@
       <c r="H86">
         <v>55.800896000000002</v>
       </c>
-      <c r="I86" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J86" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>53</v>
       </c>
@@ -5772,11 +5507,14 @@
       <c r="H87">
         <v>55.677101</v>
       </c>
-      <c r="I87" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J87" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>54</v>
       </c>
@@ -5801,11 +5539,14 @@
       <c r="H88">
         <v>55.922325000000001</v>
       </c>
-      <c r="I88" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J88" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>55</v>
       </c>
@@ -5830,11 +5571,14 @@
       <c r="H89">
         <v>55.66563</v>
       </c>
-      <c r="I89" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J89" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>110</v>
       </c>
@@ -5859,11 +5603,14 @@
       <c r="H90">
         <v>55.726906</v>
       </c>
-      <c r="I90" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J90" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>117</v>
       </c>
@@ -5888,11 +5635,14 @@
       <c r="H91">
         <v>55.735703000000001</v>
       </c>
-      <c r="I91" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J91" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>123</v>
       </c>
@@ -5917,11 +5667,14 @@
       <c r="H92">
         <v>55.492030999999997</v>
       </c>
-      <c r="I92" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J92" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>134</v>
       </c>
@@ -5946,11 +5699,14 @@
       <c r="H93">
         <v>55.709727999999998</v>
       </c>
-      <c r="I93" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J93" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>142</v>
       </c>
@@ -5975,11 +5731,14 @@
       <c r="H94">
         <v>55.790058000000002</v>
       </c>
-      <c r="I94" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J94" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>159</v>
       </c>
@@ -6004,11 +5763,14 @@
       <c r="H95">
         <v>55.812533999999999</v>
       </c>
-      <c r="I95" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J95" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>164</v>
       </c>
@@ -6033,11 +5795,14 @@
       <c r="H96">
         <v>55.851162000000002</v>
       </c>
-      <c r="I96" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J96" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>184</v>
       </c>
@@ -6062,11 +5827,14 @@
       <c r="H97">
         <v>55.998019999999997</v>
       </c>
-      <c r="I97" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J97" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>196</v>
       </c>
@@ -6091,11 +5859,14 @@
       <c r="H98">
         <v>55.899763999999998</v>
       </c>
-      <c r="I98" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J98" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>237</v>
       </c>
@@ -6108,11 +5879,14 @@
       <c r="D99" t="s">
         <v>394</v>
       </c>
-      <c r="I99" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J99" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>56</v>
       </c>
@@ -6137,11 +5911,14 @@
       <c r="H100">
         <v>68.928100999999998</v>
       </c>
-      <c r="I100" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J100" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>57</v>
       </c>
@@ -6166,11 +5943,14 @@
       <c r="H101">
         <v>55.708880999999998</v>
       </c>
-      <c r="I101" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J101" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>58</v>
       </c>
@@ -6195,11 +5975,14 @@
       <c r="H102">
         <v>56.100002000000003</v>
       </c>
-      <c r="I102" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J102" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>162</v>
       </c>
@@ -6224,11 +6007,14 @@
       <c r="H103">
         <v>60.963298999999999</v>
       </c>
-      <c r="I103" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J103" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>155</v>
       </c>
@@ -6253,11 +6039,14 @@
       <c r="H104">
         <v>55.631583999999997</v>
       </c>
-      <c r="I104" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J104" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>59</v>
       </c>
@@ -6282,11 +6071,14 @@
       <c r="H105">
         <v>56.279708999999997</v>
       </c>
-      <c r="I105" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J105" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>60</v>
       </c>
@@ -6311,11 +6103,14 @@
       <c r="H106">
         <v>56.344226999999997</v>
       </c>
-      <c r="I106" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J106" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>133</v>
       </c>
@@ -6340,11 +6135,14 @@
       <c r="H107">
         <v>56.220837000000003</v>
       </c>
-      <c r="I107" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J107" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>114</v>
       </c>
@@ -6369,11 +6167,14 @@
       <c r="H108">
         <v>57.916049999999998</v>
       </c>
-      <c r="I108" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J108" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>163</v>
       </c>
@@ -6398,11 +6199,14 @@
       <c r="H109">
         <v>53.751896000000002</v>
       </c>
-      <c r="I109" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J109" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>138</v>
       </c>
@@ -6427,11 +6231,14 @@
       <c r="H110">
         <v>53.086238999999999</v>
       </c>
-      <c r="I110" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="I110" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J110" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>130</v>
       </c>
@@ -6456,11 +6263,14 @@
       <c r="H111">
         <v>54.037731000000001</v>
       </c>
-      <c r="I111" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J111" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>62</v>
       </c>
@@ -6482,11 +6292,14 @@
       <c r="H112">
         <v>44.727921000000002</v>
       </c>
-      <c r="I112" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J112" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>63</v>
       </c>
@@ -6511,11 +6324,14 @@
       <c r="H113">
         <v>54.941025000000003</v>
       </c>
-      <c r="I113" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J113" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>141</v>
       </c>
@@ -6540,11 +6356,14 @@
       <c r="H114">
         <v>55.025084999999997</v>
       </c>
-      <c r="I114" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J114" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>64</v>
       </c>
@@ -6569,11 +6388,14 @@
       <c r="H115">
         <v>55.826889000000001</v>
       </c>
-      <c r="I115" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J115" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>137</v>
       </c>
@@ -6598,11 +6420,14 @@
       <c r="H116">
         <v>55.116024000000003</v>
       </c>
-      <c r="I116" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J116" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>65</v>
       </c>
@@ -6627,11 +6452,14 @@
       <c r="H117">
         <v>54.486794000000003</v>
       </c>
-      <c r="I117" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J117" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>66</v>
       </c>
@@ -6656,11 +6484,14 @@
       <c r="H118">
         <v>54.988067999999998</v>
       </c>
-      <c r="I118" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J118" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>67</v>
       </c>
@@ -6685,11 +6516,14 @@
       <c r="H119">
         <v>54.933360999999998</v>
       </c>
-      <c r="I119" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J119" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>68</v>
       </c>
@@ -6714,11 +6548,14 @@
       <c r="H120">
         <v>52.919586000000002</v>
       </c>
-      <c r="I120" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J120" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>69</v>
       </c>
@@ -6743,11 +6580,14 @@
       <c r="H121">
         <v>51.762267999999999</v>
       </c>
-      <c r="I121" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J121" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6772,11 +6612,14 @@
       <c r="H122">
         <v>51.217582999999998</v>
       </c>
-      <c r="I122" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J122" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>70</v>
       </c>
@@ -6801,11 +6644,14 @@
       <c r="H123">
         <v>53.188313000000001</v>
       </c>
-      <c r="I123" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J123" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>158</v>
       </c>
@@ -6830,11 +6676,14 @@
       <c r="H124">
         <v>53.235607000000002</v>
       </c>
-      <c r="I124" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J124" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>113</v>
       </c>
@@ -6859,11 +6708,14 @@
       <c r="H125">
         <v>57.995930000000001</v>
       </c>
-      <c r="I125" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J125" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>191</v>
       </c>
@@ -6888,11 +6740,14 @@
       <c r="H126">
         <v>58.036430000000003</v>
       </c>
-      <c r="I126" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J126" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>206</v>
       </c>
@@ -6905,11 +6760,14 @@
       <c r="D127" t="s">
         <v>510</v>
       </c>
-      <c r="I127" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="I127" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J127" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>71</v>
       </c>
@@ -6934,11 +6792,14 @@
       <c r="H128">
         <v>61.818480999999998</v>
       </c>
-      <c r="I128" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J128" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>186</v>
       </c>
@@ -6960,11 +6821,14 @@
       <c r="H129">
         <v>62.722346999999999</v>
       </c>
-      <c r="I129" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="I129" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J129" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>72</v>
       </c>
@@ -6989,11 +6853,14 @@
       <c r="H130">
         <v>57.816692000000003</v>
       </c>
-      <c r="I130" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="I130" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J130" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>187</v>
       </c>
@@ -7018,11 +6885,14 @@
       <c r="H131">
         <v>56.275852</v>
       </c>
-      <c r="I131" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="I131" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J131" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>73</v>
       </c>
@@ -7047,11 +6917,14 @@
       <c r="H132">
         <v>47.210037</v>
       </c>
-      <c r="I132" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="I132" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J132" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>74</v>
       </c>
@@ -7076,11 +6949,14 @@
       <c r="H133">
         <v>47.282673000000003</v>
       </c>
-      <c r="I133" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="I133" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J133" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>125</v>
       </c>
@@ -7105,11 +6981,14 @@
       <c r="H134">
         <v>47.240260999999997</v>
       </c>
-      <c r="I134" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J134" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>190</v>
       </c>
@@ -7134,11 +7013,14 @@
       <c r="H135">
         <v>47.527400999999998</v>
       </c>
-      <c r="I135" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="I135" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J135" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>250</v>
       </c>
@@ -7151,11 +7033,14 @@
       <c r="D136" t="s">
         <v>545</v>
       </c>
-      <c r="I136" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="I136" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J136" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>150</v>
       </c>
@@ -7180,11 +7065,14 @@
       <c r="H137">
         <v>58.023707999999999</v>
       </c>
-      <c r="I137" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="I137" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J137" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>75</v>
       </c>
@@ -7209,11 +7097,14 @@
       <c r="H138">
         <v>54.634520999999999</v>
       </c>
-      <c r="I138" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="I138" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J138" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>76</v>
       </c>
@@ -7238,11 +7129,14 @@
       <c r="H139">
         <v>53.279891999999997</v>
       </c>
-      <c r="I139" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="I139" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J139" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>77</v>
       </c>
@@ -7267,11 +7161,14 @@
       <c r="H140">
         <v>53.129848000000003</v>
       </c>
-      <c r="I140" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="I140" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J140" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>128</v>
       </c>
@@ -7296,11 +7193,14 @@
       <c r="H141">
         <v>53.198639</v>
       </c>
-      <c r="I141" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J141" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>78</v>
       </c>
@@ -7325,11 +7225,14 @@
       <c r="H142">
         <v>59.897995000000002</v>
       </c>
-      <c r="I142" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="I142" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J142" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>80</v>
       </c>
@@ -7354,11 +7257,14 @@
       <c r="H143">
         <v>59.804783</v>
       </c>
-      <c r="I143" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J143" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>81</v>
       </c>
@@ -7383,11 +7289,14 @@
       <c r="H144">
         <v>59.851269000000002</v>
       </c>
-      <c r="I144" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="I144" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J144" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>82</v>
       </c>
@@ -7412,11 +7321,14 @@
       <c r="H145">
         <v>59.815018000000002</v>
       </c>
-      <c r="I145" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="I145" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J145" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>83</v>
       </c>
@@ -7441,11 +7353,14 @@
       <c r="H146">
         <v>59.984729999999999</v>
       </c>
-      <c r="I146" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="I146" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J146" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>84</v>
       </c>
@@ -7470,11 +7385,14 @@
       <c r="H147">
         <v>59.981724</v>
       </c>
-      <c r="I147" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="I147" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J147" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>115</v>
       </c>
@@ -7499,11 +7417,14 @@
       <c r="H148">
         <v>59.804447000000003</v>
       </c>
-      <c r="I148" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="I148" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J148" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>116</v>
       </c>
@@ -7528,11 +7449,14 @@
       <c r="H149">
         <v>60.061356000000004</v>
       </c>
-      <c r="I149" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J149" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>145</v>
       </c>
@@ -7557,11 +7481,14 @@
       <c r="H150">
         <v>59.96217</v>
       </c>
-      <c r="I150" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J150" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>171</v>
       </c>
@@ -7586,11 +7513,14 @@
       <c r="H151">
         <v>60.007992000000002</v>
       </c>
-      <c r="I151" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="I151" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J151" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>211</v>
       </c>
@@ -7615,11 +7545,14 @@
       <c r="H152">
         <v>59.898957000000003</v>
       </c>
-      <c r="I152" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="I152" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J152" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>85</v>
       </c>
@@ -7644,11 +7577,14 @@
       <c r="H153">
         <v>54.193165</v>
       </c>
-      <c r="I153" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="I153" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J153" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>86</v>
       </c>
@@ -7673,11 +7609,14 @@
       <c r="H154">
         <v>51.557048999999999</v>
       </c>
-      <c r="I154" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="I154" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J154" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>87</v>
       </c>
@@ -7702,11 +7641,14 @@
       <c r="H155">
         <v>51.606788999999999</v>
       </c>
-      <c r="I155" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="I155" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J155" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>272</v>
       </c>
@@ -7728,11 +7670,14 @@
       <c r="H156">
         <v>64.582386</v>
       </c>
-      <c r="I156" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="I156" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J156" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>198</v>
       </c>
@@ -7757,11 +7702,14 @@
       <c r="H157">
         <v>56.339799999999997</v>
       </c>
-      <c r="I157" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J157" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>217</v>
       </c>
@@ -7786,11 +7734,14 @@
       <c r="H158">
         <v>59.587012999999999</v>
       </c>
-      <c r="I158" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="I158" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J158" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>119</v>
       </c>
@@ -7815,11 +7766,14 @@
       <c r="H159">
         <v>54.815784000000001</v>
       </c>
-      <c r="I159" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="I159" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J159" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>151</v>
       </c>
@@ -7844,11 +7798,14 @@
       <c r="H160">
         <v>43.583233</v>
       </c>
-      <c r="I160" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="I160" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J160" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>88</v>
       </c>
@@ -7873,11 +7830,14 @@
       <c r="H161">
         <v>45.057513999999998</v>
       </c>
-      <c r="I161" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J161" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>153</v>
       </c>
@@ -7902,11 +7862,14 @@
       <c r="H162">
         <v>44.988028999999997</v>
       </c>
-      <c r="I162" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="I162" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J162" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>238</v>
       </c>
@@ -7931,11 +7894,14 @@
       <c r="H163">
         <v>51.339399999999998</v>
       </c>
-      <c r="I163" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="I163" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J163" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>89</v>
       </c>
@@ -7960,11 +7926,14 @@
       <c r="H164">
         <v>53.614230999999997</v>
       </c>
-      <c r="I164" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="I164" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J164" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>275</v>
       </c>
@@ -7977,11 +7946,14 @@
       <c r="D165" t="s">
         <v>648</v>
       </c>
-      <c r="I165" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="I165" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J165" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>90</v>
       </c>
@@ -8006,11 +7978,14 @@
       <c r="H166">
         <v>61.26099</v>
       </c>
-      <c r="I166" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="I166" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J166" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>199</v>
       </c>
@@ -8035,11 +8010,14 @@
       <c r="H167">
         <v>61.306088000000003</v>
       </c>
-      <c r="I167" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="I167" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J167" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8064,11 +8042,14 @@
       <c r="H168">
         <v>53.191715000000002</v>
       </c>
-      <c r="I168" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="I168" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J168" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>91</v>
       </c>
@@ -8093,11 +8074,14 @@
       <c r="H169">
         <v>61.657986000000001</v>
       </c>
-      <c r="I169" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="I169" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J169" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>109</v>
       </c>
@@ -8122,11 +8106,14 @@
       <c r="H170">
         <v>52.721530999999999</v>
       </c>
-      <c r="I170" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="I170" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J170" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>92</v>
       </c>
@@ -8151,11 +8138,14 @@
       <c r="H171">
         <v>56.806190000000001</v>
       </c>
-      <c r="I171" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="I171" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J171" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>139</v>
       </c>
@@ -8177,11 +8167,14 @@
       <c r="H172">
         <v>59.641815000000001</v>
       </c>
-      <c r="I172" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="I172" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J172" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8206,11 +8199,14 @@
       <c r="H173">
         <v>58.221798</v>
       </c>
-      <c r="I173" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="I173" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J173" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>93</v>
       </c>
@@ -8235,11 +8231,14 @@
       <c r="H174">
         <v>53.544761999999999</v>
       </c>
-      <c r="I174" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="I174" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J174" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>94</v>
       </c>
@@ -8261,11 +8260,14 @@
       <c r="H175">
         <v>56.471972999999998</v>
       </c>
-      <c r="I175" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="I175" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J175" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>95</v>
       </c>
@@ -8290,11 +8292,14 @@
       <c r="H176">
         <v>54.199379</v>
       </c>
-      <c r="I176" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="I176" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J176" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>197</v>
       </c>
@@ -8319,11 +8324,14 @@
       <c r="H177">
         <v>54.159545000000001</v>
       </c>
-      <c r="I177" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="I177" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J177" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>96</v>
       </c>
@@ -8348,11 +8356,14 @@
       <c r="H178">
         <v>57.103813000000002</v>
       </c>
-      <c r="I178" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="I178" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J178" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>135</v>
       </c>
@@ -8377,11 +8388,14 @@
       <c r="H179">
         <v>57.090831999999999</v>
       </c>
-      <c r="I179" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="I179" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J179" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>97</v>
       </c>
@@ -8406,11 +8420,14 @@
       <c r="H180">
         <v>51.82</v>
       </c>
-      <c r="I180" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="I180" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J180" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>98</v>
       </c>
@@ -8435,11 +8452,14 @@
       <c r="H181">
         <v>54.333466000000001</v>
       </c>
-      <c r="I181" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="I181" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J181" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>273</v>
       </c>
@@ -8464,11 +8484,14 @@
       <c r="H182">
         <v>54.667299</v>
       </c>
-      <c r="I182" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="I182" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J182" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>99</v>
       </c>
@@ -8493,11 +8516,14 @@
       <c r="H183">
         <v>54.691398999999997</v>
       </c>
-      <c r="I183" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="I183" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J183" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>100</v>
       </c>
@@ -8522,11 +8548,14 @@
       <c r="H184">
         <v>54.722163999999999</v>
       </c>
-      <c r="I184" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="I184" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J184" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>101</v>
       </c>
@@ -8551,11 +8580,14 @@
       <c r="H185">
         <v>54.783954999999999</v>
       </c>
-      <c r="I185" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="I185" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J185" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>210</v>
       </c>
@@ -8580,11 +8612,14 @@
       <c r="H186">
         <v>54.667299</v>
       </c>
-      <c r="I186" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="I186" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J186" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>103</v>
       </c>
@@ -8609,11 +8644,14 @@
       <c r="H187">
         <v>48.402431999999997</v>
       </c>
-      <c r="I187" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="I187" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J187" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>102</v>
       </c>
@@ -8638,11 +8676,14 @@
       <c r="H188">
         <v>56.12764</v>
       </c>
-      <c r="I188" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="I188" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J188" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>104</v>
       </c>
@@ -8667,11 +8708,14 @@
       <c r="H189">
         <v>55.104584000000003</v>
       </c>
-      <c r="I189" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="I189" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J189" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>105</v>
       </c>
@@ -8696,11 +8740,14 @@
       <c r="H190">
         <v>55.198151000000003</v>
       </c>
-      <c r="I190" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="I190" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J190" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>169</v>
       </c>
@@ -8725,188 +8772,229 @@
       <c r="H191">
         <v>55.121071000000001</v>
       </c>
-      <c r="I191" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="I191" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J191" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="B192" t="s">
+        <v>748</v>
+      </c>
+      <c r="C192" t="s">
         <v>747</v>
-      </c>
-      <c r="C192" t="s">
-        <v>748</v>
       </c>
       <c r="D192" t="s">
         <v>749</v>
       </c>
-      <c r="I192" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="E192" t="s">
+        <v>750</v>
+      </c>
+      <c r="F192" t="s">
+        <v>97</v>
+      </c>
+      <c r="G192">
+        <v>37.984543000000002</v>
+      </c>
+      <c r="H192">
+        <v>59.124873999999998</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J192" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="B193" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C193" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D193" t="s">
-        <v>751</v>
-      </c>
-      <c r="I193" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>753</v>
+      </c>
+      <c r="E193" t="s">
+        <v>754</v>
+      </c>
+      <c r="F193" t="s">
+        <v>755</v>
+      </c>
+      <c r="G193">
+        <v>37.470184000000003</v>
+      </c>
+      <c r="H193">
+        <v>55.162726999999997</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J193" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="B194" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C194" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="D194" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E194" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="F194" t="s">
-        <v>97</v>
+        <v>543</v>
       </c>
       <c r="G194">
-        <v>37.984543000000002</v>
+        <v>40</v>
       </c>
       <c r="H194">
-        <v>59.124873999999998</v>
-      </c>
-      <c r="I194" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J194" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B195" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C195" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D195" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E195" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F195" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="G195">
-        <v>37.470184000000003</v>
+        <v>46.147799999999997</v>
       </c>
       <c r="H195">
-        <v>55.162726999999997</v>
-      </c>
-      <c r="I195" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>51.469383000000001</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J195" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="B196" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C196" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D196" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E196" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="F196" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G196">
-        <v>40</v>
+        <v>39.862282</v>
       </c>
       <c r="H196">
-        <v>47</v>
-      </c>
-      <c r="I196" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197">
-        <v>157</v>
-      </c>
-      <c r="B197" t="s">
-        <v>764</v>
-      </c>
-      <c r="C197" t="s">
-        <v>765</v>
-      </c>
-      <c r="D197" t="s">
-        <v>766</v>
-      </c>
-      <c r="E197" t="s">
-        <v>767</v>
-      </c>
-      <c r="F197" t="s">
-        <v>768</v>
-      </c>
-      <c r="G197">
-        <v>46.147799999999997</v>
-      </c>
-      <c r="H197">
-        <v>51.469383000000001</v>
-      </c>
-      <c r="I197" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198">
-        <v>107</v>
-      </c>
-      <c r="B198" t="s">
-        <v>769</v>
-      </c>
-      <c r="C198" t="s">
-        <v>770</v>
-      </c>
-      <c r="D198" t="s">
+        <v>57.658439999999999</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J196" t="s">
         <v>771</v>
       </c>
-      <c r="E198" t="s">
-        <v>772</v>
-      </c>
-      <c r="F198" t="s">
-        <v>550</v>
-      </c>
-      <c r="G198">
-        <v>39.862282</v>
-      </c>
-      <c r="H198">
-        <v>57.658439999999999</v>
-      </c>
-      <c r="I198" t="s">
-        <v>970</v>
-      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="9:9">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="9:9">
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="9:9">
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="9:9">
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="9:9">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="9:9">
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="9:9">
+      <c r="I215" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
